--- a/biology/Botanique/Laboulbeniomycetes/Laboulbeniomycetes.xlsx
+++ b/biology/Botanique/Laboulbeniomycetes/Laboulbeniomycetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Laboulbeniomycetes sont une classe de champignons atypiques, quasi microscopiques, appartenant au grand groupe des ascomycètes. Les quelque 2 000 espèces décrites dans cette classe sont pour la plupart des parasites externes obligatoires d'arthropodes, principalement d'insectes[2].
+Les Laboulbeniomycetes sont une classe de champignons atypiques, quasi microscopiques, appartenant au grand groupe des ascomycètes. Les quelque 2 000 espèces décrites dans cette classe sont pour la plupart des parasites externes obligatoires d'arthropodes, principalement d'insectes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La version de 2007 de Myconet reconnaît deux ordres au sein des Laboulbéniomycètes[3] : les Laboulbeniales et les Pyxidiophorales :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La version de 2007 de Myconet reconnaît deux ordres au sein des Laboulbéniomycètes : les Laboulbeniales et les Pyxidiophorales :
 Ordre des Laboulbeniales
 Ceratomycetaceae S. Colla 1934
 Euceratomycetaceae I.I. Tav. 1980
@@ -522,7 +536,7 @@
 Laboulbeniaceae G. Winter 1886
 Ordre des Pyxidiophorales P.F. Cannon 2001
 Pyxidiophoraceae Arnold 1971
-La séparation de l'ordre des Pyxidiophorales reste toutefois discutée, notamment par une étude de phylogénie moléculaire consacrée à la classe, qui intègre la famille des Pyxidiophoraceae au sein de l'ordre unique des Laboulbeniales[2].
+La séparation de l'ordre des Pyxidiophorales reste toutefois discutée, notamment par une étude de phylogénie moléculaire consacrée à la classe, qui intègre la famille des Pyxidiophoraceae au sein de l'ordre unique des Laboulbeniales.
 </t>
         </is>
       </c>
@@ -551,20 +565,22 @@
           <t>Liste des sous-classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 août 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 août 2017) :
 sous-classe des Laboulbeniomycetidae
 ordre des Laboulbeniales
 ordre des Pyxidiophorales
-Selon BioLib                    (2 août 2017)[4] :
+Selon BioLib                    (2 août 2017) :
 ordre des Laboulbeniales
 ordre des Pyxidiophorales
-Selon Catalogue of Life                                   (2 août 2017)[5] :
+Selon Catalogue of Life                                   (2 août 2017) :
 ordre des Laboulbeniales
 ordre des Pyxidiophorales
 incertae sedis
-Selon ITIS      (2 août 2017)[6] :
+Selon ITIS      (2 août 2017) :
 sous-classe des Laboulbeniomycetidae</t>
         </is>
       </c>
